--- a/assets/results/HI_result.xlsx
+++ b/assets/results/HI_result.xlsx
@@ -7,14 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hawaii County" sheetId="1" r:id="rId1"/>
+    <sheet name="Honolulu County" sheetId="2" r:id="rId2"/>
+    <sheet name="Kalawao County" sheetId="3" r:id="rId3"/>
+    <sheet name="Kauai County" sheetId="4" r:id="rId4"/>
+    <sheet name="Maui County" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="64">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +179,37 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Hawaii County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Honolulu County</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Kalawao County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Kauai County</t>
+  </si>
+  <si>
     <t>009</t>
   </si>
   <si>
     <t>Maui County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,6 +611,2334 @@
         <v>4</v>
       </c>
       <c r="C4">
+        <v>201350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>60094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>26579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>96118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8859813084112149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.48411214953271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>28938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>90.03387096774193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>368.5322957198443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>7836.223702578923</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>16222.57901947936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.005491444488658973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.402228412256267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>35649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>25223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>30947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>35442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>42432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.617886178861788</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>83.40000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8778947368421053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>979682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>175756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>24048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>417316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>98422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>527022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.886002886002886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.147186147186148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>177703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>321.9307787391842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>4879.128796655417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>93343.53711576726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>59453.64125588308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.006359485650391353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2.919562989191204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>47755</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>40079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>28258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>41694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>36178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>243482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.932432432432432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9722222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.018329938900204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.512219959266802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>58750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>71949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>21036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>23301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>37881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>64.40000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.013975155279503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.501552795031055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>77.76335877862596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>119.223602484472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3289.235753543535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>5354.718638702017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.01277219430485762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1.328726968174204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>37170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>40979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>26371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>40313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>38088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31659</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>14701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.793478260869565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>98.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9702127659574469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>166657</v>
       </c>
     </row>
